--- a/location.xlsx
+++ b/location.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\Mapping-with-R\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ABBA538-52F7-4BD8-8FD7-899AF13F1472}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13050"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="141">
   <si>
     <t>code</t>
   </si>
@@ -424,19 +430,33 @@
   </si>
   <si>
     <t>D’Orangeville</t>
+  </si>
+  <si>
+    <t>color</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>red</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>blue</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>orange</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>black</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -475,357 +495,40 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -833,263 +536,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="53">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1101,75 +555,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="53">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规_Sheet8" xfId="1"/>
-    <cellStyle name="货币[0]" xfId="2" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="3" builtinId="38"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="货币" xfId="5" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="6" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="7" builtinId="39"/>
-    <cellStyle name="差" xfId="8" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="9" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="10" builtinId="40"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8"/>
-    <cellStyle name="百分比" xfId="12" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
-    <cellStyle name="注释" xfId="14" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="15" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="16" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="17" builtinId="11"/>
-    <cellStyle name="标题" xfId="18" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="19" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="20" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="21" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="22" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="23" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="24" builtinId="44"/>
-    <cellStyle name="输出" xfId="25" builtinId="21"/>
-    <cellStyle name="计算" xfId="26" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="27" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="28" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="30" builtinId="24"/>
-    <cellStyle name="常规_Sheet2" xfId="31"/>
-    <cellStyle name="汇总" xfId="32" builtinId="25"/>
-    <cellStyle name="好" xfId="33" builtinId="26"/>
-    <cellStyle name="适中" xfId="34" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="35" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="36" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="37" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="38" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="39" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="40" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="41" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="42" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="43" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="44" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="45" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="46" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="47" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="48" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="49" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="50" builtinId="52"/>
-    <cellStyle name="常规_results with eqn" xfId="51"/>
-    <cellStyle name="常规_Sheet1" xfId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1456,2636 +862,2971 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G113"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="C94" workbookViewId="0">
+      <selection activeCell="H101" sqref="H101:H112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="13.875" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="4"/>
+    <col min="1" max="7" width="13.90625" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="3">
+      <c r="H1" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3">
-        <v>32.0596</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="3">
-        <v>118.805</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="3">
+      <c r="C2" s="2">
+        <v>32.059600000000003</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2">
+        <v>118.80500000000001</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>4</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>40.564957</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="3">
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2">
         <v>-105.083977</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="3">
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>5</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>52.3</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2">
         <v>10.4333333333333</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="3">
-        <v>8</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="F4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="3">
-        <v>36.0017455</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="3">
-        <v>-79.0249956</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="3">
-        <v>9</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="C5" s="2">
+        <v>36.001745499999998</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2">
+        <v>-79.024995599999997</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="3">
-        <v>44.308302</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="C6" s="2">
+        <v>44.308301999999998</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2">
         <v>86.006321</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="3">
+      <c r="F6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>11</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>-36.75</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="3">
-        <v>142.113888888889</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="3">
+      <c r="E7" s="2">
+        <v>142.11388888888899</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>14</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="3">
-        <v>32.59</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="C8" s="2">
+        <v>32.590000000000003</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="2">
         <v>119.7</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="3">
+      <c r="F8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>15</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="3">
-        <v>48.4214812</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="3">
-        <v>-89.2618968</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="3">
+      <c r="C9" s="2">
+        <v>48.421481200000002</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2">
+        <v>-89.261896800000002</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>16</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="3">
-        <v>38.8833333333333</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="3">
+      <c r="C10" s="2">
+        <v>38.883333333333297</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="2">
         <v>-76.55</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="3">
+      <c r="F10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>21</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="3">
-        <v>48.2435341</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="3">
-        <v>8.87694</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="3">
+      <c r="C11" s="2">
+        <v>48.243534099999998</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="2">
+        <v>8.8769399999999994</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>22</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="3">
-        <v>43.6333333333333</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="3">
+      <c r="C12" s="2">
+        <v>43.633333333333297</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="2">
         <v>116.7</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="3">
+      <c r="F12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>23</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>52.3</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="3">
-        <v>10.5166666666667</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="3">
+      <c r="D13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="2">
+        <v>10.516666666666699</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>27</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="3">
-        <v>48.2211376</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="C14" s="2">
+        <v>48.221137599999999</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="2">
         <v>11.5933875</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="3">
+      <c r="F14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <v>28</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>23.3333333333333</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="3">
+      <c r="D15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="2">
         <v>113.5</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="3">
+      <c r="F15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>29</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <v>47.5833333333333</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="3">
-        <v>133.516666666667</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="3">
+      <c r="D16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="2">
+        <v>133.51666666666699</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
         <v>31</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="3">
-        <v>30.2716140469</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="3">
+      <c r="C17" s="2">
+        <v>30.271614046900002</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="2">
         <v>120.1924467087</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="3">
+      <c r="F17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
         <v>32</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <v>-35.25</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <v>149.43</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="3">
+      <c r="F18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
         <v>33</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="3">
-        <v>31.6166666666667</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="3">
+      <c r="C19" s="2">
+        <v>31.616666666666699</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="2">
         <v>120.466666666667</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="3">
+      <c r="F19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
         <v>34</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="3">
-        <v>43.0830139</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="3">
+      <c r="C20" s="2">
+        <v>43.083013899999997</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="2">
         <v>141.2687583</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="3">
+      <c r="F20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>35</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="3">
-        <v>48.7527229</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="3">
-        <v>6.3410344</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="3">
+      <c r="C21" s="2">
+        <v>48.752722900000002</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="2">
+        <v>6.3410343999999998</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
         <v>37</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="3">
-        <v>35.4666666666667</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="3">
+      <c r="C22" s="2">
+        <v>35.466666666666697</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="2">
         <v>104.583333333333</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="3">
+      <c r="F22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
         <v>38</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="3">
-        <v>34.1454136</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="3">
-        <v>74.8081141</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="3">
+      <c r="C23" s="2">
+        <v>34.145413599999998</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="2">
+        <v>74.808114099999997</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <v>41</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="3">
-        <v>62.603598</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="3">
-        <v>29.744203</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="3">
+      <c r="C24" s="2">
+        <v>62.603597999999998</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="2">
+        <v>29.744202999999999</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
         <v>43</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="2">
         <v>36.0543288</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="3">
+      <c r="D25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="2">
         <v>140.0876044</v>
       </c>
-      <c r="F25" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="3">
+      <c r="F25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
         <v>44</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="3">
-        <v>55.4666666666667</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="3">
+      <c r="C26" s="2">
+        <v>55.466666666666697</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="2">
         <v>9.1</v>
       </c>
-      <c r="F26" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="3">
+      <c r="F26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>45</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="3">
-        <v>34.1454136</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="3">
-        <v>74.8081141</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="3">
+      <c r="C27" s="2">
+        <v>34.145413599999998</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="2">
+        <v>74.808114099999997</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
         <v>46</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="3">
-        <v>28.6373709</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="3">
+      <c r="C28" s="2">
+        <v>28.637370900000001</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="2">
         <v>77.1628793</v>
       </c>
-      <c r="F28" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="3">
+      <c r="F28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
         <v>47</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="3">
-        <v>22.8411382987</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3">
+      <c r="C29" s="2">
+        <v>22.841138298699999</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="2">
         <v>108.2930517197</v>
       </c>
-      <c r="F29" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="3">
+      <c r="F29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
         <v>49</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="3">
-        <v>46.9338988</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="3">
-        <v>7.4010414</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="3">
+      <c r="C30" s="2">
+        <v>46.933898800000001</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="2">
+        <v>7.4010414000000004</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
         <v>50</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="2">
         <v>43.0742884</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="3">
-        <v>141.3363537</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="3">
+      <c r="D31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="2">
+        <v>141.33635369999999</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
         <v>51</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="3">
-        <v>51.8777259</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="3">
-        <v>0.9472069</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="3">
+      <c r="C32" s="2">
+        <v>51.877725900000002</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0.94720689999999996</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
         <v>52</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="3">
-        <v>35.7846633</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-78.6820946</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="3">
+      <c r="C33" s="2">
+        <v>35.784663299999998</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="2">
+        <v>-78.682094599999999</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
         <v>55</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="2">
         <v>38.7395639</v>
       </c>
-      <c r="D34" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" s="3">
+      <c r="D34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="2">
         <v>-120.7420561</v>
       </c>
-      <c r="F34" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="3">
+      <c r="F34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
         <v>56</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="2">
         <v>38.7395639</v>
       </c>
-      <c r="D35" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" s="3">
+      <c r="D35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="2">
         <v>-120.7420561</v>
       </c>
-      <c r="F35" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="3">
+      <c r="F35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
         <v>57</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="3">
-        <v>-35.2897996</v>
-      </c>
-      <c r="D36" s="5" t="s">
+      <c r="C36" s="2">
+        <v>-35.289799600000002</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="2">
         <v>149.091981</v>
       </c>
-      <c r="F36" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="3">
+      <c r="F36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
         <v>58</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="2">
         <v>54.0103942</v>
       </c>
-      <c r="D37" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" s="3">
-        <v>-2.7877294</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="3">
+      <c r="D37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="2">
+        <v>-2.7877293999999999</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
         <v>59</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C38" s="3">
-        <v>56.0361218</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" s="3">
+      <c r="C38" s="2">
+        <v>56.036121799999997</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="2">
         <v>-2.864296</v>
       </c>
-      <c r="F38" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="3">
+      <c r="F38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
         <v>60</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="3">
-        <v>-35.2897996</v>
-      </c>
-      <c r="D39" s="5" t="s">
+      <c r="C39" s="2">
+        <v>-35.289799600000002</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39" s="2">
         <v>149.091981</v>
       </c>
-      <c r="F39" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="3">
+      <c r="F39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
         <v>61</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="3">
-        <v>40.00494</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" s="3">
+      <c r="C40" s="2">
+        <v>40.004939999999998</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="2">
         <v>116.35745</v>
       </c>
-      <c r="F40" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="3">
+      <c r="F40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
         <v>63</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="2">
         <v>36.0022339</v>
       </c>
-      <c r="D41" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" s="3">
-        <v>-79.0132276</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="3">
+      <c r="D41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="2">
+        <v>-79.013227599999993</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
         <v>64</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="3">
-        <v>33.4042242</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="3">
-        <v>-112.0372439</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="3">
+      <c r="C42" s="2">
+        <v>33.404224200000002</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="2">
+        <v>-112.03724389999999</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
         <v>65</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="2">
         <v>36.0014258</v>
       </c>
-      <c r="D43" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43" s="3">
-        <v>-78.9382286</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="3">
+      <c r="D43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="2">
+        <v>-78.938228600000002</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
         <v>66</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C44" s="3">
-        <v>48.7527229</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E44" s="3">
-        <v>6.3410344</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="3">
+      <c r="C44" s="2">
+        <v>48.752722900000002</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="2">
+        <v>6.3410343999999998</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
         <v>67</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C45" s="3">
-        <v>38.6933005</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45" s="3">
-        <v>-9.3304044</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="3">
+      <c r="C45" s="2">
+        <v>38.693300499999999</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="2">
+        <v>-9.3304044000000008</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
         <v>68</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C46" s="3">
-        <v>59.814947</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E46" s="3">
-        <v>17.6628688</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="3">
+      <c r="C46" s="2">
+        <v>59.814946999999997</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="2">
+        <v>17.662868799999998</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
         <v>69</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="2">
         <v>36.0014258</v>
       </c>
-      <c r="D47" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" s="3">
-        <v>-78.9382286</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="3">
+      <c r="D47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="2">
+        <v>-78.938228600000002</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
         <v>70</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C48" s="3">
-        <v>53.2251785</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E48" s="3">
-        <v>-4.2025255</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="3">
+      <c r="C48" s="2">
+        <v>53.225178499999998</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="2">
+        <v>-4.2025255000000001</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
         <v>71</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C49" s="3">
-        <v>47.559088</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E49" s="3">
-        <v>7.581713</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G49" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="3">
+      <c r="C49" s="2">
+        <v>47.559088000000003</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="2">
+        <v>7.5817129999999997</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
         <v>72</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C50" s="3">
-        <v>32.5515067</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E50" s="3">
-        <v>-85.6366973</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G50" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="3">
+      <c r="C50" s="2">
+        <v>32.551506699999997</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="2">
+        <v>-85.636697299999994</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
         <v>73</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51" s="2">
         <v>53.2295205</v>
       </c>
-      <c r="D51" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E51" s="3">
-        <v>-4.1299873</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G51" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="3">
+      <c r="D51" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="2">
+        <v>-4.1299872999999998</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
         <v>74</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C52" s="2">
         <v>36.0014258</v>
       </c>
-      <c r="D52" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E52" s="3">
-        <v>-78.9382286</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G52" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="3">
+      <c r="D52" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="2">
+        <v>-78.938228600000002</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
         <v>75</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C53" s="2">
         <v>26.0635303</v>
       </c>
-      <c r="D53" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E53" s="3">
-        <v>-80.3619252</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G53" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="3">
+      <c r="D53" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="2">
+        <v>-80.361925200000002</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
         <v>76</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C54" s="3">
-        <v>45.77517</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E54" s="3">
-        <v>3.1417863</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G54" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="3">
+      <c r="C54" s="2">
+        <v>45.775170000000003</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="2">
+        <v>3.1417863000000001</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
         <v>77</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C55" s="3">
-        <v>29.7166666666667</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E55" s="3">
+      <c r="C55" s="2">
+        <v>29.716666666666701</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="2">
         <v>-82.2</v>
       </c>
-      <c r="F55" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G55" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="3">
+      <c r="F55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
         <v>78</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C56" s="3">
-        <v>52.28957</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E56" s="3">
-        <v>10.4465213</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G56" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="3">
+      <c r="C56" s="2">
+        <v>52.289569999999998</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" s="2">
+        <v>10.446521300000001</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
         <v>79</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C57" s="2">
         <v>38.7395639</v>
       </c>
-      <c r="D57" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E57" s="3">
+      <c r="D57" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="2">
         <v>-120.7420561</v>
       </c>
-      <c r="F57" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G57" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="3">
+      <c r="F57" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
         <v>80</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C58" s="2">
         <v>38.7395639</v>
       </c>
-      <c r="D58" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E58" s="3">
+      <c r="D58" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="2">
         <v>-120.7420561</v>
       </c>
-      <c r="F58" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G58" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="3">
+      <c r="F58" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
         <v>81</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C59" s="2">
         <v>51.5587692</v>
       </c>
-      <c r="D59" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E59" s="3">
-        <v>9.8863105</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G59" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="3">
+      <c r="D59" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="2">
+        <v>9.8863105000000004</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
         <v>84</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C60" s="3">
-        <v>53.4668498</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E60" s="3">
-        <v>-2.2338837</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G60" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="3">
+      <c r="C60" s="2">
+        <v>53.466849799999999</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="2">
+        <v>-2.2338836999999998</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H60" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
         <v>91</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C61" s="3">
-        <v>40.11461</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E61" s="3">
+      <c r="C61" s="2">
+        <v>40.114609999999999</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" s="2">
         <v>-88.3471495</v>
       </c>
-      <c r="F61" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G61" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="3">
+      <c r="F61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
         <v>92</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C62" s="3">
-        <v>57.6833333333333</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E62" s="3">
+      <c r="C62" s="2">
+        <v>57.683333333333302</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="2">
         <v>19.9166666666667</v>
       </c>
-      <c r="F62" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G62" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="3">
+      <c r="F62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H62" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
         <v>94</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C63" s="3">
-        <v>48.6976635</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E63" s="3">
-        <v>2.1064443</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G63" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="3">
+      <c r="C63" s="2">
+        <v>48.697663499999997</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" s="2">
+        <v>2.1064443000000002</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
         <v>95</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C64" s="3">
+      <c r="C64" s="2">
         <v>38.7395639</v>
       </c>
-      <c r="D64" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E64" s="3">
+      <c r="D64" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" s="2">
         <v>-120.7420561</v>
       </c>
-      <c r="F64" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G64" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="3">
+      <c r="F64" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
         <v>96</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C65" s="3">
+      <c r="C65" s="2">
         <v>56.2385278</v>
       </c>
-      <c r="D65" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E65" s="3">
-        <v>-3.609144</v>
-      </c>
-      <c r="F65" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G65" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="3">
+      <c r="D65" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65" s="2">
+        <v>-3.6091440000000001</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
         <v>124</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C66" s="3">
-        <v>51.8095745</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E66" s="3">
-        <v>-0.3584865</v>
-      </c>
-      <c r="F66" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G66" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="A67" s="3">
+      <c r="C66" s="2">
+        <v>51.809574499999997</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" s="2">
+        <v>-0.35848649999999999</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
         <v>125</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C67" s="3">
-        <v>39.7466977</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E67" s="3">
-        <v>140.9814516</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G67" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68" s="3">
+      <c r="C67" s="2">
+        <v>39.746697699999999</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E67" s="2">
+        <v>140.98145160000001</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
         <v>126</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C68" s="3">
-        <v>37.2787794</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E68" s="3">
+      <c r="C68" s="2">
+        <v>37.278779399999998</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E68" s="2">
         <v>126.95585</v>
       </c>
-      <c r="F68" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G68" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="3">
+      <c r="F68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
         <v>128</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C69" s="3">
-        <v>46.8113406</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E69" s="3">
+      <c r="C69" s="2">
+        <v>46.811340600000001</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E69" s="2">
         <v>-100.9104538</v>
       </c>
-      <c r="F69" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G69" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="A70" s="3">
+      <c r="F69" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
         <v>138</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C70" s="3">
+      <c r="C70" s="2">
         <v>23.1794444444444</v>
       </c>
-      <c r="D70" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E70" s="3">
-        <v>113.3525</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G70" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="A71" s="3">
+      <c r="D70" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" s="2">
+        <v>113.35250000000001</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H70" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
         <v>140</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C71" s="3">
-        <v>33.05</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E71" s="3">
+      <c r="C71" s="2">
+        <v>33.049999999999997</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E71" s="2">
         <v>-112</v>
       </c>
-      <c r="F71" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G71" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="A72" s="3">
+      <c r="F71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H71" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
         <v>152</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C72" s="3">
-        <v>45.9977237</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-77.4277607</v>
-      </c>
-      <c r="F72" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G72" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
-      <c r="A73" s="3">
+      <c r="C72" s="2">
+        <v>45.997723700000002</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" s="2">
+        <v>-77.427760699999993</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
         <v>154</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C73" s="3">
+      <c r="C73" s="2">
         <v>41.4860653</v>
       </c>
-      <c r="D73" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E73" s="3">
-        <v>-71.5308537</v>
-      </c>
-      <c r="F73" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G73" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
-      <c r="A74" s="3">
+      <c r="D73" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E73" s="2">
+        <v>-71.530853699999994</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H73" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
         <v>157</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C74" s="3">
-        <v>42.9944987</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E74" s="3">
-        <v>141.3885523</v>
-      </c>
-      <c r="F74" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G74" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="A75" s="3">
+      <c r="C74" s="2">
+        <v>42.994498700000001</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74" s="2">
+        <v>141.38855229999999</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H74" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
         <v>159</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C75" s="3">
+      <c r="C75" s="2">
         <v>43</v>
       </c>
-      <c r="D75" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E75" s="3">
+      <c r="D75" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E75" s="2">
         <v>141</v>
       </c>
-      <c r="F75" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G75" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
-      <c r="A76" s="3">
+      <c r="F75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
         <v>164</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C76" s="3">
-        <v>30.225029</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E76" s="3">
+      <c r="C76" s="2">
+        <v>30.225028999999999</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76" s="2">
         <v>-92.1150454</v>
       </c>
-      <c r="F76" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G76" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
-      <c r="A77" s="3">
+      <c r="F76" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H76" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
         <v>167</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B77" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C77" s="3">
+      <c r="C77" s="2">
         <v>50.57085</v>
       </c>
-      <c r="D77" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E77" s="3">
-        <v>8.6685597</v>
-      </c>
-      <c r="F77" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G77" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
-      <c r="A78" s="3">
+      <c r="D77" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E77" s="2">
+        <v>8.6685596999999994</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H77" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
         <v>168</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B78" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C78" s="3">
-        <v>33.4666666666667</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E78" s="3">
-        <v>88.7833333333333</v>
-      </c>
-      <c r="F78" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G78" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
-      <c r="A79" s="3">
+      <c r="C78" s="2">
+        <v>33.466666666666697</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E78" s="2">
+        <v>88.783333333333303</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H78" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
         <v>169</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="B79" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C79" s="3">
-        <v>51.9845558</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E79" s="3">
-        <v>5.6635809</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G79" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
-      <c r="A80" s="3">
+      <c r="C79" s="2">
+        <v>51.984555800000003</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E79" s="2">
+        <v>5.6635809000000004</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H79" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
         <v>171</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="B80" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C80" s="3">
-        <v>35.6972439</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E80" s="3">
+      <c r="C80" s="2">
+        <v>35.697243899999997</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E80" s="2">
         <v>139.7593459</v>
       </c>
-      <c r="F80" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G80" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
-      <c r="A81" s="3">
+      <c r="F80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H80" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
         <v>173</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="B81" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C81" s="3">
-        <v>47.448734</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E81" s="3">
-        <v>8.678572</v>
-      </c>
-      <c r="F81" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G81" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
-      <c r="A82" s="3">
+      <c r="C81" s="2">
+        <v>47.448734000000002</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="2">
+        <v>8.6785720000000008</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H81" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
         <v>175</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B82" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C82" s="3">
-        <v>35.7846637</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E82" s="3">
-        <v>-78.6820946</v>
-      </c>
-      <c r="F82" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G82" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
-      <c r="A83" s="3">
+      <c r="C82" s="2">
+        <v>35.784663700000003</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E82" s="2">
+        <v>-78.682094599999999</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H82" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
         <v>176</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B83" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C83" s="3">
-        <v>60.8166666666667</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E83" s="3">
+      <c r="C83" s="2">
+        <v>60.816666666666698</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" s="2">
         <v>23.5</v>
       </c>
-      <c r="F83" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G83" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
-      <c r="A84" s="3">
+      <c r="F83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H83" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
         <v>177</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B84" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C84" s="3">
-        <v>51.8777259</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E84" s="3">
-        <v>0.9472071</v>
-      </c>
-      <c r="F84" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G84" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
-      <c r="A85" s="3">
+      <c r="C84" s="2">
+        <v>51.877725900000002</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E84" s="2">
+        <v>0.94720709999999997</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H84" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
         <v>178</v>
       </c>
-      <c r="B85" s="5" t="s">
+      <c r="B85" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C85" s="3">
-        <v>47.3605578</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E85" s="3">
+      <c r="C85" s="2">
+        <v>47.360557800000002</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E85" s="2">
         <v>8.4524241</v>
       </c>
-      <c r="F85" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G85" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
-      <c r="A86" s="3">
+      <c r="F85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H85" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
         <v>179</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="B86" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C86" s="3">
-        <v>60.1726353</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E86" s="3">
+      <c r="C86" s="2">
+        <v>60.172635300000003</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E86" s="2">
         <v>24.9510419</v>
       </c>
-      <c r="F86" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G86" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
-      <c r="A87" s="3">
+      <c r="F86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H86" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
         <v>6</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="B87" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C87" s="3">
-        <v>53.1735668</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E87" s="3">
-        <v>9.8921014</v>
-      </c>
-      <c r="F87" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G87" s="5" t="s">
+      <c r="C87" s="2">
+        <v>53.173566800000003</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E87" s="2">
+        <v>9.8921013999999996</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G87" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="88" spans="1:7">
-      <c r="A88" s="3">
+      <c r="H87" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
         <v>7</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="B88" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C88" s="3">
+      <c r="C88" s="2">
         <v>53.25</v>
       </c>
-      <c r="D88" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E88" s="3">
-        <v>9.96666666666667</v>
-      </c>
-      <c r="F88" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G88" s="5" t="s">
+      <c r="D88" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E88" s="2">
+        <v>9.9666666666666703</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G88" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="89" spans="1:7">
-      <c r="A89" s="3">
-        <v>10</v>
-      </c>
-      <c r="B89" s="5" t="s">
+      <c r="H88" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
+        <v>10</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C89" s="3">
+      <c r="C89" s="2">
         <v>-34.9</v>
       </c>
-      <c r="D89" s="5" t="s">
+      <c r="D89" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E89" s="3">
-        <v>-57.9308638888889</v>
-      </c>
-      <c r="F89" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G89" s="5" t="s">
+      <c r="E89" s="2">
+        <v>-57.930863888888901</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G89" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="90" spans="1:7">
-      <c r="A90" s="3">
+      <c r="H89" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
         <v>17</v>
       </c>
-      <c r="B90" s="5" t="s">
+      <c r="B90" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C90" s="3">
+      <c r="C90" s="2">
         <v>44.5</v>
       </c>
-      <c r="D90" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E90" s="3">
+      <c r="D90" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E90" s="2">
         <v>87.75</v>
       </c>
-      <c r="F90" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G90" s="5" t="s">
+      <c r="F90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G90" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:7">
-      <c r="A91" s="3">
+      <c r="H90" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
         <v>62</v>
       </c>
-      <c r="B91" s="5" t="s">
+      <c r="B91" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C91" s="3">
-        <v>42.701848</v>
-      </c>
-      <c r="D91" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-84.4821719</v>
-      </c>
-      <c r="F91" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G91" s="5" t="s">
+      <c r="C91" s="2">
+        <v>42.701847999999998</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E91" s="2">
+        <v>-84.482171899999997</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G91" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="92" spans="1:7">
-      <c r="A92" s="3">
+      <c r="H91" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
         <v>89</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="B92" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C92" s="3">
-        <v>41.5026819</v>
-      </c>
-      <c r="D92" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E92" s="3">
-        <v>2.1021331</v>
-      </c>
-      <c r="F92" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G92" s="5" t="s">
+      <c r="C92" s="2">
+        <v>41.502681899999999</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E92" s="2">
+        <v>2.1021331000000001</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G92" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="93" spans="1:7">
-      <c r="A93" s="3">
+      <c r="H92" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
         <v>90</v>
       </c>
-      <c r="B93" s="5" t="s">
+      <c r="B93" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C93" s="3">
-        <v>53.1660865</v>
-      </c>
-      <c r="D93" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E93" s="3">
-        <v>9.9168057</v>
-      </c>
-      <c r="F93" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G93" s="5" t="s">
+      <c r="C93" s="2">
+        <v>53.166086499999999</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E93" s="2">
+        <v>9.9168056999999994</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G93" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="94" spans="1:7">
-      <c r="A94" s="3">
+      <c r="H93" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
         <v>139</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="B94" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C94" s="3">
+      <c r="C94" s="2">
         <v>31.69</v>
       </c>
-      <c r="D94" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E94" s="3">
+      <c r="D94" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E94" s="2">
         <v>103.899444444444</v>
       </c>
-      <c r="F94" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G94" s="5" t="s">
+      <c r="F94" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G94" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="95" spans="1:7">
-      <c r="A95" s="3">
-        <v>12</v>
-      </c>
-      <c r="B95" s="5" t="s">
+      <c r="H94" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <v>12</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C95" s="3">
+      <c r="C95" s="2">
         <v>30.36</v>
       </c>
-      <c r="D95" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E95" s="3">
+      <c r="D95" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E95" s="2">
         <v>119.7</v>
       </c>
-      <c r="F95" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G95" s="5" t="s">
+      <c r="F95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G95" s="2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="96" spans="1:7">
-      <c r="A96" s="3">
+      <c r="H95" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
         <v>88</v>
       </c>
-      <c r="B96" s="5" t="s">
+      <c r="B96" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C96" s="3">
-        <v>36.8166666666667</v>
-      </c>
-      <c r="D96" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E96" s="3">
+      <c r="C96" s="2">
+        <v>36.816666666666698</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E96" s="2">
         <v>-115.916666666667</v>
       </c>
-      <c r="F96" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G96" s="5" t="s">
+      <c r="F96" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G96" s="2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
-      <c r="A97" s="3">
+      <c r="H96" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
         <v>142</v>
       </c>
-      <c r="B97" s="5" t="s">
+      <c r="B97" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C97" s="3">
+      <c r="C97" s="2">
         <v>42.2202705479</v>
       </c>
-      <c r="D97" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E97" s="3">
+      <c r="D97" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E97" s="2">
         <v>116.5062761307</v>
       </c>
-      <c r="F97" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G97" s="5" t="s">
+      <c r="F97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G97" s="2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
-      <c r="A98" s="3">
+      <c r="H97" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="2">
         <v>143</v>
       </c>
-      <c r="B98" s="5" t="s">
+      <c r="B98" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C98" s="3">
-        <v>43.6333333333333</v>
-      </c>
-      <c r="D98" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E98" s="3">
+      <c r="C98" s="2">
+        <v>43.633333333333297</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E98" s="2">
         <v>116.7</v>
       </c>
-      <c r="F98" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G98" s="5" t="s">
+      <c r="F98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G98" s="2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:7">
-      <c r="A99" s="3">
+      <c r="H98" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="2">
         <v>146</v>
       </c>
-      <c r="B99" s="5" t="s">
+      <c r="B99" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C99" s="3">
-        <v>41.3872139</v>
-      </c>
-      <c r="D99" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E99" s="3">
-        <v>2.1619949</v>
-      </c>
-      <c r="F99" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G99" s="5" t="s">
+      <c r="C99" s="2">
+        <v>41.387213899999999</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E99" s="2">
+        <v>2.1619948999999998</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G99" s="2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
-      <c r="A100" s="3">
+      <c r="H99" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="2">
         <v>162</v>
       </c>
-      <c r="B100" s="5" t="s">
+      <c r="B100" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C100" s="3">
-        <v>36.8166666666667</v>
-      </c>
-      <c r="D100" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E100" s="3">
+      <c r="C100" s="2">
+        <v>36.816666666666698</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E100" s="2">
         <v>-115.916666666667</v>
       </c>
-      <c r="F100" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G100" s="5" t="s">
+      <c r="F100" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G100" s="2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
-      <c r="A101" s="3">
+      <c r="H100" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="2">
         <v>20</v>
       </c>
-      <c r="B101" s="5" t="s">
+      <c r="B101" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C101" s="3">
-        <v>31.6833333333333</v>
-      </c>
-      <c r="D101" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E101" s="3">
+      <c r="C101" s="2">
+        <v>31.683333333333302</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E101" s="2">
         <v>103.883333333333</v>
       </c>
-      <c r="F101" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G101" s="5" t="s">
+      <c r="F101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G101" s="2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="102" spans="1:7">
-      <c r="A102" s="3">
+      <c r="H101" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="2">
         <v>30</v>
       </c>
-      <c r="B102" s="5" t="s">
+      <c r="B102" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C102" s="3">
-        <v>31.6833333333333</v>
-      </c>
-      <c r="D102" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E102" s="3">
+      <c r="C102" s="2">
+        <v>31.683333333333302</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102" s="2">
         <v>103.883333333333</v>
       </c>
-      <c r="F102" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G102" s="5" t="s">
+      <c r="F102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G102" s="2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="103" spans="1:7">
-      <c r="A103" s="3">
+      <c r="H102" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="2">
         <v>98</v>
       </c>
-      <c r="B103" s="5" t="s">
+      <c r="B103" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C103" s="3">
-        <v>31.6833333333333</v>
-      </c>
-      <c r="D103" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E103" s="3">
+      <c r="C103" s="2">
+        <v>31.683333333333302</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E103" s="2">
         <v>103.883333333333</v>
       </c>
-      <c r="F103" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G103" s="5" t="s">
+      <c r="F103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G103" s="2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
-      <c r="A104" s="3">
+      <c r="H103" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="2">
         <v>105</v>
       </c>
-      <c r="B104" s="5" t="s">
+      <c r="B104" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C104" s="3">
-        <v>31.6833333333333</v>
-      </c>
-      <c r="D104" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E104" s="3">
+      <c r="C104" s="2">
+        <v>31.683333333333302</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E104" s="2">
         <v>103.883333333333</v>
       </c>
-      <c r="F104" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G104" s="5" t="s">
+      <c r="F104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G104" s="2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="105" spans="1:7">
-      <c r="A105" s="3">
+      <c r="H104" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="2">
         <v>106</v>
       </c>
-      <c r="B105" s="5" t="s">
+      <c r="B105" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C105" s="3">
+      <c r="C105" s="2">
         <v>44.75</v>
       </c>
-      <c r="D105" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E105" s="3">
+      <c r="D105" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E105" s="2">
         <v>123.75</v>
       </c>
-      <c r="F105" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G105" s="5" t="s">
+      <c r="F105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G105" s="2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="106" spans="1:7">
-      <c r="A106" s="3">
+      <c r="H105" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="2">
         <v>108</v>
       </c>
-      <c r="B106" s="5" t="s">
+      <c r="B106" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C106" s="3">
-        <v>30.61611</v>
-      </c>
-      <c r="D106" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E106" s="3">
+      <c r="C106" s="2">
+        <v>30.616109999999999</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E106" s="2">
         <v>104.02987</v>
       </c>
-      <c r="F106" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G106" s="5" t="s">
+      <c r="F106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G106" s="2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="107" spans="1:7">
-      <c r="A107" s="3">
+      <c r="H106" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="2">
         <v>109</v>
       </c>
-      <c r="B107" s="5" t="s">
+      <c r="B107" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C107" s="3">
-        <v>31.5541666666667</v>
-      </c>
-      <c r="D107" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E107" s="3">
+      <c r="C107" s="2">
+        <v>31.554166666666699</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E107" s="2">
         <v>102.358888888889</v>
       </c>
-      <c r="F107" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G107" s="5" t="s">
+      <c r="F107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G107" s="2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="108" spans="1:7">
-      <c r="A108" s="3">
+      <c r="H107" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="2">
         <v>111</v>
       </c>
-      <c r="B108" s="5" t="s">
+      <c r="B108" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C108" s="3">
+      <c r="C108" s="2">
         <v>43.02</v>
       </c>
-      <c r="D108" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E108" s="3">
-        <v>-81.2144444444445</v>
-      </c>
-      <c r="F108" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G108" s="5" t="s">
+      <c r="D108" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E108" s="2">
+        <v>-81.214444444444496</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G108" s="2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="109" spans="1:7">
-      <c r="A109" s="3">
-        <v>119</v>
-      </c>
-      <c r="B109" s="5" t="s">
+      <c r="H108" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="2">
+        <v>119</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C109" s="3">
-        <v>31.6833333333333</v>
-      </c>
-      <c r="D109" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E109" s="3">
+      <c r="C109" s="2">
+        <v>31.683333333333302</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E109" s="2">
         <v>103.883333333333</v>
       </c>
-      <c r="F109" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G109" s="5" t="s">
+      <c r="F109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G109" s="2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="110" spans="1:7">
-      <c r="A110" s="3">
+      <c r="H109" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="2">
         <v>121</v>
       </c>
-      <c r="B110" s="5" t="s">
+      <c r="B110" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C110" s="3">
+      <c r="C110" s="2">
         <v>54.65</v>
       </c>
-      <c r="D110" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E110" s="3">
-        <v>-2.21666666666667</v>
-      </c>
-      <c r="F110" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G110" s="5" t="s">
+      <c r="D110" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E110" s="2">
+        <v>-2.2166666666666699</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G110" s="2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="111" spans="1:7">
-      <c r="A111" s="3">
-        <v>123</v>
-      </c>
-      <c r="B111" s="5" t="s">
+      <c r="H110" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="2">
+        <v>123</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C111" s="3">
-        <v>40.05</v>
-      </c>
-      <c r="D111" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E111" s="3">
+      <c r="C111" s="2">
+        <v>40.049999999999997</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E111" s="2">
         <v>-105.583333333333</v>
       </c>
-      <c r="F111" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G111" s="5" t="s">
+      <c r="F111" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G111" s="2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="112" spans="1:7">
-      <c r="A112" s="3">
+      <c r="H111" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="2">
         <v>129</v>
       </c>
-      <c r="B112" s="5" t="s">
+      <c r="B112" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C112" s="3">
+      <c r="C112" s="2">
         <v>47.28</v>
       </c>
-      <c r="D112" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E112" s="3">
+      <c r="D112" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E112" s="2">
         <v>71.23</v>
       </c>
-      <c r="F112" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G112" s="5" t="s">
+      <c r="F112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G112" s="2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="113" spans="1:4">
-      <c r="A113" s="6"/>
-      <c r="B113" s="6"/>
-      <c r="C113" s="7"/>
-      <c r="D113" s="7"/>
+      <c r="H112" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="4"/>
+      <c r="B113" s="4"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
     </row>
   </sheetData>
-  <sortState ref="A2:G112">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G112">
     <sortCondition ref="G2:G112"/>
     <sortCondition ref="A2:A112"/>
   </sortState>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="12.625" style="1"/>
+    <col min="6" max="6" width="12.6328125" style="1"/>
     <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="13.75" style="1"/>
+    <col min="8" max="8" width="13.7265625" style="1"/>
     <col min="9" max="9" width="9" style="1"/>
-    <col min="10" max="10" width="13.625" customWidth="1"/>
+    <col min="10" max="10" width="13.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>111</v>
       </c>
@@ -4101,16 +3842,16 @@
       <c r="E1" t="s">
         <v>114</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="J1" t="s">
@@ -4120,7 +3861,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3</v>
       </c>
@@ -4137,15 +3878,15 @@
         <v>120</v>
       </c>
       <c r="F2" s="1">
-        <v>32.0596</v>
-      </c>
-      <c r="G2" s="2" t="s">
+        <v>32.059600000000003</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="1">
-        <v>118.805</v>
-      </c>
-      <c r="I2" s="2" t="s">
+        <v>118.80500000000001</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J2" t="s">
@@ -4155,7 +3896,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>4</v>
       </c>
@@ -4174,13 +3915,13 @@
       <c r="F3" s="1">
         <v>40.564957</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H3" s="1">
         <v>-105.083977</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J3" t="s">
@@ -4190,7 +3931,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5</v>
       </c>
@@ -4209,13 +3950,13 @@
       <c r="F4" s="1">
         <v>52.3</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H4" s="1">
         <v>10.4333333333333</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J4" t="s">
@@ -4225,7 +3966,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>6</v>
       </c>
@@ -4242,15 +3983,15 @@
         <v>124</v>
       </c>
       <c r="F5" s="1">
-        <v>53.1735668</v>
-      </c>
-      <c r="G5" s="2" t="s">
+        <v>53.173566800000003</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H5" s="1">
-        <v>9.8921014</v>
-      </c>
-      <c r="I5" s="2" t="s">
+        <v>9.8921013999999996</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J5" t="s">
@@ -4260,7 +4001,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>7</v>
       </c>
@@ -4279,13 +4020,13 @@
       <c r="F6" s="1">
         <v>53.25</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H6" s="1">
-        <v>9.96666666666667</v>
-      </c>
-      <c r="I6" s="2" t="s">
+        <v>9.9666666666666703</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J6" t="s">
@@ -4295,7 +4036,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>8</v>
       </c>
@@ -4312,15 +4053,15 @@
         <v>124</v>
       </c>
       <c r="F7" s="1">
-        <v>36.0017455</v>
-      </c>
-      <c r="G7" s="2" t="s">
+        <v>36.001745499999998</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H7" s="1">
-        <v>-79.0249956</v>
-      </c>
-      <c r="I7" s="2" t="s">
+        <v>-79.024995599999997</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J7" t="s">
@@ -4330,7 +4071,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>9</v>
       </c>
@@ -4347,15 +4088,15 @@
         <v>120</v>
       </c>
       <c r="F8" s="1">
-        <v>44.308302</v>
-      </c>
-      <c r="G8" s="2" t="s">
+        <v>44.308301999999998</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H8" s="1">
         <v>86.006321</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J8" t="s">
@@ -4365,7 +4106,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>10</v>
       </c>
@@ -4384,13 +4125,13 @@
       <c r="F9" s="1">
         <v>-34.9</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H9" s="1">
-        <v>-57.9308638888889</v>
-      </c>
-      <c r="I9" s="2" t="s">
+        <v>-57.930863888888901</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J9" t="s">
@@ -4400,7 +4141,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>11</v>
       </c>
@@ -4419,13 +4160,13 @@
       <c r="F10" s="1">
         <v>-36.75</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H10" s="1">
-        <v>142.113888888889</v>
-      </c>
-      <c r="I10" s="2" t="s">
+        <v>142.11388888888899</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J10" t="s">
@@ -4435,7 +4176,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>12</v>
       </c>
@@ -4454,13 +4195,13 @@
       <c r="F11" s="1">
         <v>30.36</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H11" s="1">
         <v>119.7</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J11" t="s">
@@ -4470,7 +4211,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>14</v>
       </c>
@@ -4487,15 +4228,15 @@
         <v>120</v>
       </c>
       <c r="F12" s="1">
-        <v>32.59</v>
-      </c>
-      <c r="G12" s="2" t="s">
+        <v>32.590000000000003</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H12" s="1">
         <v>119.7</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J12" t="s">
@@ -4505,7 +4246,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>15</v>
       </c>
@@ -4522,15 +4263,15 @@
         <v>124</v>
       </c>
       <c r="F13" s="1">
-        <v>48.4214812</v>
-      </c>
-      <c r="G13" s="2" t="s">
+        <v>48.421481200000002</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H13" s="1">
-        <v>-89.2618968</v>
-      </c>
-      <c r="I13" s="2" t="s">
+        <v>-89.261896800000002</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J13" t="s">
@@ -4540,7 +4281,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>16</v>
       </c>
@@ -4557,15 +4298,15 @@
         <v>120</v>
       </c>
       <c r="F14" s="1">
-        <v>38.8833333333333</v>
-      </c>
-      <c r="G14" s="2" t="s">
+        <v>38.883333333333297</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H14" s="1">
         <v>-76.55</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J14" t="s">
@@ -4575,7 +4316,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>17</v>
       </c>
@@ -4594,13 +4335,13 @@
       <c r="F15" s="1">
         <v>44.5</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H15" s="1">
         <v>87.75</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J15" t="s">
@@ -4610,7 +4351,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>20</v>
       </c>
@@ -4627,15 +4368,15 @@
         <v>124</v>
       </c>
       <c r="F16" s="1">
-        <v>31.6833333333333</v>
-      </c>
-      <c r="G16" s="2" t="s">
+        <v>31.683333333333302</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H16" s="1">
         <v>103.883333333333</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I16" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J16" t="s">
@@ -4645,7 +4386,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>21</v>
       </c>
@@ -4662,15 +4403,15 @@
         <v>120</v>
       </c>
       <c r="F17" s="1">
-        <v>48.2435341</v>
-      </c>
-      <c r="G17" s="2" t="s">
+        <v>48.243534099999998</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H17" s="1">
-        <v>8.87694</v>
-      </c>
-      <c r="I17" s="2" t="s">
+        <v>8.8769399999999994</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J17" t="s">
@@ -4680,7 +4421,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>22</v>
       </c>
@@ -4697,15 +4438,15 @@
         <v>120</v>
       </c>
       <c r="F18" s="1">
-        <v>43.6333333333333</v>
-      </c>
-      <c r="G18" s="2" t="s">
+        <v>43.633333333333297</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H18" s="1">
         <v>116.7</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="I18" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J18" t="s">
@@ -4715,7 +4456,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>23</v>
       </c>
@@ -4734,13 +4475,13 @@
       <c r="F19" s="1">
         <v>52.3</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H19" s="1">
-        <v>10.5166666666667</v>
-      </c>
-      <c r="I19" s="2" t="s">
+        <v>10.516666666666699</v>
+      </c>
+      <c r="I19" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J19" t="s">
@@ -4750,7 +4491,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>27</v>
       </c>
@@ -4767,15 +4508,15 @@
         <v>124</v>
       </c>
       <c r="F20" s="1">
-        <v>48.2211376</v>
-      </c>
-      <c r="G20" s="2" t="s">
+        <v>48.221137599999999</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H20" s="1">
         <v>11.5933875</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="I20" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J20" t="s">
@@ -4785,7 +4526,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>28</v>
       </c>
@@ -4804,13 +4545,13 @@
       <c r="F21" s="1">
         <v>23.3333333333333</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H21" s="1">
         <v>113.5</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="I21" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J21" t="s">
@@ -4820,7 +4561,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>29</v>
       </c>
@@ -4839,13 +4580,13 @@
       <c r="F22" s="1">
         <v>47.5833333333333</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G22" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H22" s="1">
-        <v>133.516666666667</v>
-      </c>
-      <c r="I22" s="2" t="s">
+        <v>133.51666666666699</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J22" t="s">
@@ -4855,7 +4596,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>30</v>
       </c>
@@ -4872,15 +4613,15 @@
         <v>124</v>
       </c>
       <c r="F23" s="1">
-        <v>31.6833333333333</v>
-      </c>
-      <c r="G23" s="2" t="s">
+        <v>31.683333333333302</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H23" s="1">
         <v>103.883333333333</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="I23" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J23" t="s">
@@ -4890,7 +4631,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>31</v>
       </c>
@@ -4907,15 +4648,15 @@
         <v>120</v>
       </c>
       <c r="F24" s="1">
-        <v>30.2716140469</v>
-      </c>
-      <c r="G24" s="2" t="s">
+        <v>30.271614046900002</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H24" s="1">
         <v>120.1924467087</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="I24" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J24" t="s">
@@ -4925,7 +4666,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>32</v>
       </c>
@@ -4944,13 +4685,13 @@
       <c r="F25" s="1">
         <v>-35.25</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="G25" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H25" s="1">
         <v>149.43</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="I25" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J25" t="s">
@@ -4960,7 +4701,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>33</v>
       </c>
@@ -4977,15 +4718,15 @@
         <v>120</v>
       </c>
       <c r="F26" s="1">
-        <v>31.6166666666667</v>
-      </c>
-      <c r="G26" s="2" t="s">
+        <v>31.616666666666699</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H26" s="1">
         <v>120.466666666667</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="I26" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J26" t="s">
@@ -4995,7 +4736,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>34</v>
       </c>
@@ -5012,15 +4753,15 @@
         <v>124</v>
       </c>
       <c r="F27" s="1">
-        <v>43.0830139</v>
-      </c>
-      <c r="G27" s="2" t="s">
+        <v>43.083013899999997</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H27" s="1">
         <v>141.2687583</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="I27" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J27" t="s">
@@ -5030,7 +4771,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>35</v>
       </c>
@@ -5047,15 +4788,15 @@
         <v>124</v>
       </c>
       <c r="F28" s="1">
-        <v>48.7527229</v>
-      </c>
-      <c r="G28" s="2" t="s">
+        <v>48.752722900000002</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H28" s="1">
-        <v>6.3410344</v>
-      </c>
-      <c r="I28" s="2" t="s">
+        <v>6.3410343999999998</v>
+      </c>
+      <c r="I28" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J28" t="s">
@@ -5065,7 +4806,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>37</v>
       </c>
@@ -5082,15 +4823,15 @@
         <v>120</v>
       </c>
       <c r="F29" s="1">
-        <v>35.4666666666667</v>
-      </c>
-      <c r="G29" s="2" t="s">
+        <v>35.466666666666697</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H29" s="1">
         <v>104.583333333333</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="I29" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J29" t="s">
@@ -5100,7 +4841,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>38</v>
       </c>
@@ -5117,15 +4858,15 @@
         <v>120</v>
       </c>
       <c r="F30" s="1">
-        <v>34.1454136</v>
-      </c>
-      <c r="G30" s="2" t="s">
+        <v>34.145413599999998</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H30" s="1">
-        <v>74.8081141</v>
-      </c>
-      <c r="I30" s="2" t="s">
+        <v>74.808114099999997</v>
+      </c>
+      <c r="I30" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J30" t="s">
@@ -5135,7 +4876,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>41</v>
       </c>
@@ -5152,15 +4893,15 @@
         <v>120</v>
       </c>
       <c r="F31" s="1">
-        <v>62.603598</v>
-      </c>
-      <c r="G31" s="2" t="s">
+        <v>62.603597999999998</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H31" s="1">
-        <v>29.744203</v>
-      </c>
-      <c r="I31" s="2" t="s">
+        <v>29.744202999999999</v>
+      </c>
+      <c r="I31" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J31" t="s">
@@ -5170,7 +4911,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>43</v>
       </c>
@@ -5189,13 +4930,13 @@
       <c r="F32" s="1">
         <v>36.0543288</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="G32" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H32" s="1">
         <v>140.0876044</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="I32" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J32" t="s">
@@ -5205,7 +4946,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>44</v>
       </c>
@@ -5222,15 +4963,15 @@
         <v>120</v>
       </c>
       <c r="F33" s="1">
-        <v>55.4666666666667</v>
-      </c>
-      <c r="G33" s="2" t="s">
+        <v>55.466666666666697</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H33" s="1">
         <v>9.1</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="I33" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J33" t="s">
@@ -5240,7 +4981,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>45</v>
       </c>
@@ -5257,15 +4998,15 @@
         <v>120</v>
       </c>
       <c r="F34" s="1">
-        <v>34.1454136</v>
-      </c>
-      <c r="G34" s="2" t="s">
+        <v>34.145413599999998</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H34" s="1">
-        <v>74.8081141</v>
-      </c>
-      <c r="I34" s="2" t="s">
+        <v>74.808114099999997</v>
+      </c>
+      <c r="I34" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J34" t="s">
@@ -5275,7 +5016,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>46</v>
       </c>
@@ -5292,15 +5033,15 @@
         <v>120</v>
       </c>
       <c r="F35" s="1">
-        <v>28.6373709</v>
-      </c>
-      <c r="G35" s="2" t="s">
+        <v>28.637370900000001</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H35" s="1">
         <v>77.1628793</v>
       </c>
-      <c r="I35" s="2" t="s">
+      <c r="I35" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J35" t="s">
@@ -5310,7 +5051,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>47</v>
       </c>
@@ -5327,15 +5068,15 @@
         <v>120</v>
       </c>
       <c r="F36" s="1">
-        <v>22.8411382987</v>
-      </c>
-      <c r="G36" s="2" t="s">
+        <v>22.841138298699999</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H36" s="1">
         <v>108.2930517197</v>
       </c>
-      <c r="I36" s="2" t="s">
+      <c r="I36" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J36" t="s">
@@ -5345,7 +5086,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>49</v>
       </c>
@@ -5362,15 +5103,15 @@
         <v>120</v>
       </c>
       <c r="F37" s="1">
-        <v>46.9338988</v>
-      </c>
-      <c r="G37" s="2" t="s">
+        <v>46.933898800000001</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H37" s="1">
-        <v>7.4010414</v>
-      </c>
-      <c r="I37" s="2" t="s">
+        <v>7.4010414000000004</v>
+      </c>
+      <c r="I37" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J37" t="s">
@@ -5380,7 +5121,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>50</v>
       </c>
@@ -5399,13 +5140,13 @@
       <c r="F38" s="1">
         <v>43.0742884</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="G38" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H38" s="1">
-        <v>141.3363537</v>
-      </c>
-      <c r="I38" s="2" t="s">
+        <v>141.33635369999999</v>
+      </c>
+      <c r="I38" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J38" t="s">
@@ -5415,7 +5156,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>51</v>
       </c>
@@ -5432,15 +5173,15 @@
         <v>120</v>
       </c>
       <c r="F39" s="1">
-        <v>51.8777259</v>
-      </c>
-      <c r="G39" s="2" t="s">
+        <v>51.877725900000002</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H39" s="1">
-        <v>0.9472069</v>
-      </c>
-      <c r="I39" s="2" t="s">
+        <v>0.94720689999999996</v>
+      </c>
+      <c r="I39" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J39" t="s">
@@ -5450,7 +5191,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>52</v>
       </c>
@@ -5467,15 +5208,15 @@
         <v>120</v>
       </c>
       <c r="F40" s="1">
-        <v>35.7846633</v>
-      </c>
-      <c r="G40" s="2" t="s">
+        <v>35.784663299999998</v>
+      </c>
+      <c r="G40" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H40" s="1">
-        <v>-78.6820946</v>
-      </c>
-      <c r="I40" s="2" t="s">
+        <v>-78.682094599999999</v>
+      </c>
+      <c r="I40" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J40" t="s">
@@ -5485,7 +5226,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>55</v>
       </c>
@@ -5504,13 +5245,13 @@
       <c r="F41" s="1">
         <v>38.7395639</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="G41" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H41" s="1">
         <v>-120.7420561</v>
       </c>
-      <c r="I41" s="2" t="s">
+      <c r="I41" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J41" t="s">
@@ -5520,7 +5261,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>56</v>
       </c>
@@ -5539,13 +5280,13 @@
       <c r="F42" s="1">
         <v>38.7395639</v>
       </c>
-      <c r="G42" s="2" t="s">
+      <c r="G42" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H42" s="1">
         <v>-120.7420561</v>
       </c>
-      <c r="I42" s="2" t="s">
+      <c r="I42" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J42" t="s">
@@ -5555,7 +5296,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>57</v>
       </c>
@@ -5572,15 +5313,15 @@
         <v>120</v>
       </c>
       <c r="F43" s="1">
-        <v>-35.2897996</v>
-      </c>
-      <c r="G43" s="2" t="s">
+        <v>-35.289799600000002</v>
+      </c>
+      <c r="G43" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H43" s="1">
         <v>149.091981</v>
       </c>
-      <c r="I43" s="2" t="s">
+      <c r="I43" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J43" t="s">
@@ -5590,7 +5331,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>58</v>
       </c>
@@ -5609,13 +5350,13 @@
       <c r="F44" s="1">
         <v>54.0103942</v>
       </c>
-      <c r="G44" s="2" t="s">
+      <c r="G44" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H44" s="1">
-        <v>-2.7877294</v>
-      </c>
-      <c r="I44" s="2" t="s">
+        <v>-2.7877293999999999</v>
+      </c>
+      <c r="I44" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J44" t="s">
@@ -5625,7 +5366,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>59</v>
       </c>
@@ -5642,15 +5383,15 @@
         <v>120</v>
       </c>
       <c r="F45" s="1">
-        <v>56.0361218</v>
-      </c>
-      <c r="G45" s="2" t="s">
+        <v>56.036121799999997</v>
+      </c>
+      <c r="G45" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H45" s="1">
         <v>-2.864296</v>
       </c>
-      <c r="I45" s="2" t="s">
+      <c r="I45" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J45" t="s">
@@ -5660,7 +5401,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>60</v>
       </c>
@@ -5677,15 +5418,15 @@
         <v>120</v>
       </c>
       <c r="F46" s="1">
-        <v>-35.2897996</v>
-      </c>
-      <c r="G46" s="2" t="s">
+        <v>-35.289799600000002</v>
+      </c>
+      <c r="G46" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H46" s="1">
         <v>149.091981</v>
       </c>
-      <c r="I46" s="2" t="s">
+      <c r="I46" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J46" t="s">
@@ -5695,7 +5436,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>61</v>
       </c>
@@ -5712,15 +5453,15 @@
         <v>120</v>
       </c>
       <c r="F47" s="1">
-        <v>40.00494</v>
-      </c>
-      <c r="G47" s="2" t="s">
+        <v>40.004939999999998</v>
+      </c>
+      <c r="G47" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H47" s="1">
         <v>116.35745</v>
       </c>
-      <c r="I47" s="2" t="s">
+      <c r="I47" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J47" t="s">
@@ -5730,7 +5471,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>62</v>
       </c>
@@ -5747,15 +5488,15 @@
         <v>124</v>
       </c>
       <c r="F48" s="1">
-        <v>42.701848</v>
-      </c>
-      <c r="G48" s="2" t="s">
+        <v>42.701847999999998</v>
+      </c>
+      <c r="G48" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H48" s="1">
-        <v>-84.4821719</v>
-      </c>
-      <c r="I48" s="2" t="s">
+        <v>-84.482171899999997</v>
+      </c>
+      <c r="I48" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J48" t="s">
@@ -5765,7 +5506,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>63</v>
       </c>
@@ -5784,13 +5525,13 @@
       <c r="F49" s="1">
         <v>36.0022339</v>
       </c>
-      <c r="G49" s="2" t="s">
+      <c r="G49" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H49" s="1">
-        <v>-79.0132276</v>
-      </c>
-      <c r="I49" s="2" t="s">
+        <v>-79.013227599999993</v>
+      </c>
+      <c r="I49" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J49" t="s">
@@ -5800,7 +5541,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>64</v>
       </c>
@@ -5817,15 +5558,15 @@
         <v>120</v>
       </c>
       <c r="F50" s="1">
-        <v>33.4042242</v>
-      </c>
-      <c r="G50" s="2" t="s">
+        <v>33.404224200000002</v>
+      </c>
+      <c r="G50" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H50" s="1">
-        <v>-112.0372439</v>
-      </c>
-      <c r="I50" s="2" t="s">
+        <v>-112.03724389999999</v>
+      </c>
+      <c r="I50" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J50" t="s">
@@ -5835,7 +5576,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>65</v>
       </c>
@@ -5854,13 +5595,13 @@
       <c r="F51" s="1">
         <v>36.0014258</v>
       </c>
-      <c r="G51" s="2" t="s">
+      <c r="G51" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H51" s="1">
-        <v>-78.9382286</v>
-      </c>
-      <c r="I51" s="2" t="s">
+        <v>-78.938228600000002</v>
+      </c>
+      <c r="I51" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J51" t="s">
@@ -5870,7 +5611,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>66</v>
       </c>
@@ -5887,15 +5628,15 @@
         <v>124</v>
       </c>
       <c r="F52" s="1">
-        <v>48.7527229</v>
-      </c>
-      <c r="G52" s="2" t="s">
+        <v>48.752722900000002</v>
+      </c>
+      <c r="G52" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H52" s="1">
-        <v>6.3410344</v>
-      </c>
-      <c r="I52" s="2" t="s">
+        <v>6.3410343999999998</v>
+      </c>
+      <c r="I52" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J52" t="s">
@@ -5905,7 +5646,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>67</v>
       </c>
@@ -5922,15 +5663,15 @@
         <v>124</v>
       </c>
       <c r="F53" s="1">
-        <v>38.6933005</v>
-      </c>
-      <c r="G53" s="2" t="s">
+        <v>38.693300499999999</v>
+      </c>
+      <c r="G53" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H53" s="1">
-        <v>-9.3304044</v>
-      </c>
-      <c r="I53" s="2" t="s">
+        <v>-9.3304044000000008</v>
+      </c>
+      <c r="I53" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J53" t="s">
@@ -5940,7 +5681,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>68</v>
       </c>
@@ -5957,15 +5698,15 @@
         <v>124</v>
       </c>
       <c r="F54" s="1">
-        <v>59.814947</v>
-      </c>
-      <c r="G54" s="2" t="s">
+        <v>59.814946999999997</v>
+      </c>
+      <c r="G54" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H54" s="1">
-        <v>17.6628688</v>
-      </c>
-      <c r="I54" s="2" t="s">
+        <v>17.662868799999998</v>
+      </c>
+      <c r="I54" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J54" t="s">
@@ -5975,7 +5716,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>69</v>
       </c>
@@ -5994,13 +5735,13 @@
       <c r="F55" s="1">
         <v>36.0014258</v>
       </c>
-      <c r="G55" s="2" t="s">
+      <c r="G55" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H55" s="1">
-        <v>-78.9382286</v>
-      </c>
-      <c r="I55" s="2" t="s">
+        <v>-78.938228600000002</v>
+      </c>
+      <c r="I55" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J55" t="s">
@@ -6010,7 +5751,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>70</v>
       </c>
@@ -6027,15 +5768,15 @@
         <v>120</v>
       </c>
       <c r="F56" s="1">
-        <v>53.2251785</v>
-      </c>
-      <c r="G56" s="2" t="s">
+        <v>53.225178499999998</v>
+      </c>
+      <c r="G56" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H56" s="1">
-        <v>-4.2025255</v>
-      </c>
-      <c r="I56" s="2" t="s">
+        <v>-4.2025255000000001</v>
+      </c>
+      <c r="I56" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J56" t="s">
@@ -6045,7 +5786,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>71</v>
       </c>
@@ -6062,15 +5803,15 @@
         <v>124</v>
       </c>
       <c r="F57" s="1">
-        <v>47.559088</v>
-      </c>
-      <c r="G57" s="2" t="s">
+        <v>47.559088000000003</v>
+      </c>
+      <c r="G57" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H57" s="1">
-        <v>7.581713</v>
-      </c>
-      <c r="I57" s="2" t="s">
+        <v>7.5817129999999997</v>
+      </c>
+      <c r="I57" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J57" t="s">
@@ -6080,7 +5821,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>72</v>
       </c>
@@ -6097,15 +5838,15 @@
         <v>124</v>
       </c>
       <c r="F58" s="1">
-        <v>32.5515067</v>
-      </c>
-      <c r="G58" s="2" t="s">
+        <v>32.551506699999997</v>
+      </c>
+      <c r="G58" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H58" s="1">
-        <v>-85.6366973</v>
-      </c>
-      <c r="I58" s="2" t="s">
+        <v>-85.636697299999994</v>
+      </c>
+      <c r="I58" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J58" t="s">
@@ -6115,7 +5856,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>73</v>
       </c>
@@ -6134,13 +5875,13 @@
       <c r="F59" s="1">
         <v>53.2295205</v>
       </c>
-      <c r="G59" s="2" t="s">
+      <c r="G59" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H59" s="1">
-        <v>-4.1299873</v>
-      </c>
-      <c r="I59" s="2" t="s">
+        <v>-4.1299872999999998</v>
+      </c>
+      <c r="I59" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J59" t="s">
@@ -6150,7 +5891,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>74</v>
       </c>
@@ -6169,13 +5910,13 @@
       <c r="F60" s="1">
         <v>36.0014258</v>
       </c>
-      <c r="G60" s="2" t="s">
+      <c r="G60" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H60" s="1">
-        <v>-78.9382286</v>
-      </c>
-      <c r="I60" s="2" t="s">
+        <v>-78.938228600000002</v>
+      </c>
+      <c r="I60" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J60" t="s">
@@ -6185,7 +5926,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>75</v>
       </c>
@@ -6204,13 +5945,13 @@
       <c r="F61" s="1">
         <v>26.0635303</v>
       </c>
-      <c r="G61" s="2" t="s">
+      <c r="G61" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H61" s="1">
-        <v>-80.3619252</v>
-      </c>
-      <c r="I61" s="2" t="s">
+        <v>-80.361925200000002</v>
+      </c>
+      <c r="I61" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J61" t="s">
@@ -6220,7 +5961,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>76</v>
       </c>
@@ -6237,15 +5978,15 @@
         <v>120</v>
       </c>
       <c r="F62" s="1">
-        <v>45.77517</v>
-      </c>
-      <c r="G62" s="2" t="s">
+        <v>45.775170000000003</v>
+      </c>
+      <c r="G62" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H62" s="1">
-        <v>3.1417863</v>
-      </c>
-      <c r="I62" s="2" t="s">
+        <v>3.1417863000000001</v>
+      </c>
+      <c r="I62" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J62" t="s">
@@ -6255,7 +5996,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>77</v>
       </c>
@@ -6272,15 +6013,15 @@
         <v>124</v>
       </c>
       <c r="F63" s="1">
-        <v>29.7166666666667</v>
-      </c>
-      <c r="G63" s="2" t="s">
+        <v>29.716666666666701</v>
+      </c>
+      <c r="G63" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H63" s="1">
         <v>-82.2</v>
       </c>
-      <c r="I63" s="2" t="s">
+      <c r="I63" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J63" t="s">
@@ -6290,7 +6031,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>78</v>
       </c>
@@ -6307,15 +6048,15 @@
         <v>120</v>
       </c>
       <c r="F64" s="1">
-        <v>52.28957</v>
-      </c>
-      <c r="G64" s="2" t="s">
+        <v>52.289569999999998</v>
+      </c>
+      <c r="G64" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H64" s="1">
-        <v>10.4465213</v>
-      </c>
-      <c r="I64" s="2" t="s">
+        <v>10.446521300000001</v>
+      </c>
+      <c r="I64" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J64" t="s">
@@ -6325,7 +6066,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>79</v>
       </c>
@@ -6344,13 +6085,13 @@
       <c r="F65" s="1">
         <v>38.7395639</v>
       </c>
-      <c r="G65" s="2" t="s">
+      <c r="G65" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H65" s="1">
         <v>-120.7420561</v>
       </c>
-      <c r="I65" s="2" t="s">
+      <c r="I65" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J65" t="s">
@@ -6360,7 +6101,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>80</v>
       </c>
@@ -6379,13 +6120,13 @@
       <c r="F66" s="1">
         <v>38.7395639</v>
       </c>
-      <c r="G66" s="2" t="s">
+      <c r="G66" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H66" s="1">
         <v>-120.7420561</v>
       </c>
-      <c r="I66" s="2" t="s">
+      <c r="I66" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J66" t="s">
@@ -6395,7 +6136,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>81</v>
       </c>
@@ -6414,13 +6155,13 @@
       <c r="F67" s="1">
         <v>51.5587692</v>
       </c>
-      <c r="G67" s="2" t="s">
+      <c r="G67" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H67" s="1">
-        <v>9.8863105</v>
-      </c>
-      <c r="I67" s="2" t="s">
+        <v>9.8863105000000004</v>
+      </c>
+      <c r="I67" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J67" t="s">
@@ -6430,7 +6171,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>84</v>
       </c>
@@ -6447,15 +6188,15 @@
         <v>120</v>
       </c>
       <c r="F68" s="1">
-        <v>53.4668498</v>
-      </c>
-      <c r="G68" s="2" t="s">
+        <v>53.466849799999999</v>
+      </c>
+      <c r="G68" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H68" s="1">
-        <v>-2.2338837</v>
-      </c>
-      <c r="I68" s="2" t="s">
+        <v>-2.2338836999999998</v>
+      </c>
+      <c r="I68" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J68" t="s">
@@ -6465,7 +6206,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>88</v>
       </c>
@@ -6482,15 +6223,15 @@
         <v>124</v>
       </c>
       <c r="F69" s="1">
-        <v>36.8166666666667</v>
-      </c>
-      <c r="G69" s="2" t="s">
+        <v>36.816666666666698</v>
+      </c>
+      <c r="G69" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H69" s="1">
         <v>-115.916666666667</v>
       </c>
-      <c r="I69" s="2" t="s">
+      <c r="I69" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J69" t="s">
@@ -6500,7 +6241,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>89</v>
       </c>
@@ -6517,15 +6258,15 @@
         <v>124</v>
       </c>
       <c r="F70" s="1">
-        <v>41.5026819</v>
-      </c>
-      <c r="G70" s="2" t="s">
+        <v>41.502681899999999</v>
+      </c>
+      <c r="G70" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H70" s="1">
-        <v>2.1021331</v>
-      </c>
-      <c r="I70" s="2" t="s">
+        <v>2.1021331000000001</v>
+      </c>
+      <c r="I70" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J70" t="s">
@@ -6535,7 +6276,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>90</v>
       </c>
@@ -6552,15 +6293,15 @@
         <v>120</v>
       </c>
       <c r="F71" s="1">
-        <v>53.1660865</v>
-      </c>
-      <c r="G71" s="2" t="s">
+        <v>53.166086499999999</v>
+      </c>
+      <c r="G71" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H71" s="1">
-        <v>9.9168057</v>
-      </c>
-      <c r="I71" s="2" t="s">
+        <v>9.9168056999999994</v>
+      </c>
+      <c r="I71" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J71" t="s">
@@ -6570,7 +6311,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>91</v>
       </c>
@@ -6587,15 +6328,15 @@
         <v>120</v>
       </c>
       <c r="F72" s="1">
-        <v>40.11461</v>
-      </c>
-      <c r="G72" s="2" t="s">
+        <v>40.114609999999999</v>
+      </c>
+      <c r="G72" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H72" s="1">
         <v>-88.3471495</v>
       </c>
-      <c r="I72" s="2" t="s">
+      <c r="I72" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J72" t="s">
@@ -6605,7 +6346,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>92</v>
       </c>
@@ -6622,15 +6363,15 @@
         <v>120</v>
       </c>
       <c r="F73" s="1">
-        <v>57.6833333333333</v>
-      </c>
-      <c r="G73" s="2" t="s">
+        <v>57.683333333333302</v>
+      </c>
+      <c r="G73" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H73" s="1">
         <v>19.9166666666667</v>
       </c>
-      <c r="I73" s="2" t="s">
+      <c r="I73" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J73" t="s">
@@ -6640,7 +6381,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>94</v>
       </c>
@@ -6657,15 +6398,15 @@
         <v>120</v>
       </c>
       <c r="F74" s="1">
-        <v>48.6976635</v>
-      </c>
-      <c r="G74" s="2" t="s">
+        <v>48.697663499999997</v>
+      </c>
+      <c r="G74" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H74" s="1">
-        <v>2.1064443</v>
-      </c>
-      <c r="I74" s="2" t="s">
+        <v>2.1064443000000002</v>
+      </c>
+      <c r="I74" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J74" t="s">
@@ -6675,7 +6416,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>95</v>
       </c>
@@ -6694,13 +6435,13 @@
       <c r="F75" s="1">
         <v>38.7395639</v>
       </c>
-      <c r="G75" s="2" t="s">
+      <c r="G75" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H75" s="1">
         <v>-120.7420561</v>
       </c>
-      <c r="I75" s="2" t="s">
+      <c r="I75" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J75" t="s">
@@ -6710,7 +6451,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>96</v>
       </c>
@@ -6729,13 +6470,13 @@
       <c r="F76" s="1">
         <v>56.2385278</v>
       </c>
-      <c r="G76" s="2" t="s">
+      <c r="G76" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H76" s="1">
-        <v>-3.609144</v>
-      </c>
-      <c r="I76" s="2" t="s">
+        <v>-3.6091440000000001</v>
+      </c>
+      <c r="I76" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J76" t="s">
@@ -6745,7 +6486,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>98</v>
       </c>
@@ -6762,15 +6503,15 @@
         <v>124</v>
       </c>
       <c r="F77" s="1">
-        <v>31.6833333333333</v>
-      </c>
-      <c r="G77" s="2" t="s">
+        <v>31.683333333333302</v>
+      </c>
+      <c r="G77" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H77" s="1">
         <v>103.883333333333</v>
       </c>
-      <c r="I77" s="2" t="s">
+      <c r="I77" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J77" t="s">
@@ -6780,7 +6521,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>105</v>
       </c>
@@ -6797,15 +6538,15 @@
         <v>124</v>
       </c>
       <c r="F78" s="1">
-        <v>31.6833333333333</v>
-      </c>
-      <c r="G78" s="2" t="s">
+        <v>31.683333333333302</v>
+      </c>
+      <c r="G78" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H78" s="1">
         <v>103.883333333333</v>
       </c>
-      <c r="I78" s="2" t="s">
+      <c r="I78" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J78" t="s">
@@ -6815,7 +6556,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>106</v>
       </c>
@@ -6834,13 +6575,13 @@
       <c r="F79" s="1">
         <v>44.75</v>
       </c>
-      <c r="G79" s="2" t="s">
+      <c r="G79" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H79" s="1">
         <v>123.75</v>
       </c>
-      <c r="I79" s="2" t="s">
+      <c r="I79" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J79" t="s">
@@ -6850,7 +6591,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>108</v>
       </c>
@@ -6867,15 +6608,15 @@
         <v>124</v>
       </c>
       <c r="F80" s="1">
-        <v>30.61611</v>
-      </c>
-      <c r="G80" s="2" t="s">
+        <v>30.616109999999999</v>
+      </c>
+      <c r="G80" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H80" s="1">
         <v>104.02987</v>
       </c>
-      <c r="I80" s="2" t="s">
+      <c r="I80" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J80" t="s">
@@ -6885,7 +6626,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>109</v>
       </c>
@@ -6902,15 +6643,15 @@
         <v>120</v>
       </c>
       <c r="F81" s="1">
-        <v>31.5541666666667</v>
-      </c>
-      <c r="G81" s="2" t="s">
+        <v>31.554166666666699</v>
+      </c>
+      <c r="G81" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H81" s="1">
         <v>102.358888888889</v>
       </c>
-      <c r="I81" s="2" t="s">
+      <c r="I81" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J81" t="s">
@@ -6920,7 +6661,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>111</v>
       </c>
@@ -6939,13 +6680,13 @@
       <c r="F82" s="1">
         <v>43.02</v>
       </c>
-      <c r="G82" s="2" t="s">
+      <c r="G82" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H82" s="1">
-        <v>-81.2144444444445</v>
-      </c>
-      <c r="I82" s="2" t="s">
+        <v>-81.214444444444496</v>
+      </c>
+      <c r="I82" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J82" t="s">
@@ -6955,7 +6696,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>119</v>
       </c>
@@ -6972,15 +6713,15 @@
         <v>124</v>
       </c>
       <c r="F83" s="1">
-        <v>31.6833333333333</v>
-      </c>
-      <c r="G83" s="2" t="s">
+        <v>31.683333333333302</v>
+      </c>
+      <c r="G83" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H83" s="1">
         <v>103.883333333333</v>
       </c>
-      <c r="I83" s="2" t="s">
+      <c r="I83" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J83" t="s">
@@ -6990,7 +6731,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>121</v>
       </c>
@@ -7009,13 +6750,13 @@
       <c r="F84" s="1">
         <v>54.65</v>
       </c>
-      <c r="G84" s="2" t="s">
+      <c r="G84" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H84" s="1">
-        <v>-2.21666666666667</v>
-      </c>
-      <c r="I84" s="2" t="s">
+        <v>-2.2166666666666699</v>
+      </c>
+      <c r="I84" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J84" t="s">
@@ -7025,7 +6766,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>123</v>
       </c>
@@ -7042,15 +6783,15 @@
         <v>120</v>
       </c>
       <c r="F85" s="1">
-        <v>40.05</v>
-      </c>
-      <c r="G85" s="2" t="s">
+        <v>40.049999999999997</v>
+      </c>
+      <c r="G85" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H85" s="1">
         <v>-105.583333333333</v>
       </c>
-      <c r="I85" s="2" t="s">
+      <c r="I85" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J85" t="s">
@@ -7060,7 +6801,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>124</v>
       </c>
@@ -7077,15 +6818,15 @@
         <v>120</v>
       </c>
       <c r="F86" s="1">
-        <v>51.8095745</v>
-      </c>
-      <c r="G86" s="2" t="s">
+        <v>51.809574499999997</v>
+      </c>
+      <c r="G86" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H86" s="1">
-        <v>-0.3584865</v>
-      </c>
-      <c r="I86" s="2" t="s">
+        <v>-0.35848649999999999</v>
+      </c>
+      <c r="I86" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J86" t="s">
@@ -7095,7 +6836,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>125</v>
       </c>
@@ -7112,15 +6853,15 @@
         <v>120</v>
       </c>
       <c r="F87" s="1">
-        <v>39.7466977</v>
-      </c>
-      <c r="G87" s="2" t="s">
+        <v>39.746697699999999</v>
+      </c>
+      <c r="G87" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H87" s="1">
-        <v>140.9814516</v>
-      </c>
-      <c r="I87" s="2" t="s">
+        <v>140.98145160000001</v>
+      </c>
+      <c r="I87" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J87" t="s">
@@ -7130,7 +6871,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>126</v>
       </c>
@@ -7147,15 +6888,15 @@
         <v>120</v>
       </c>
       <c r="F88" s="1">
-        <v>37.2787794</v>
-      </c>
-      <c r="G88" s="2" t="s">
+        <v>37.278779399999998</v>
+      </c>
+      <c r="G88" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H88" s="1">
         <v>126.95585</v>
       </c>
-      <c r="I88" s="2" t="s">
+      <c r="I88" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J88" t="s">
@@ -7165,7 +6906,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>128</v>
       </c>
@@ -7182,15 +6923,15 @@
         <v>120</v>
       </c>
       <c r="F89" s="1">
-        <v>46.8113406</v>
-      </c>
-      <c r="G89" s="2" t="s">
+        <v>46.811340600000001</v>
+      </c>
+      <c r="G89" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H89" s="1">
         <v>-100.9104538</v>
       </c>
-      <c r="I89" s="2" t="s">
+      <c r="I89" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J89" t="s">
@@ -7200,7 +6941,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>129</v>
       </c>
@@ -7219,13 +6960,13 @@
       <c r="F90" s="1">
         <v>47.28</v>
       </c>
-      <c r="G90" s="2" t="s">
+      <c r="G90" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H90" s="1">
         <v>71.23</v>
       </c>
-      <c r="I90" s="2" t="s">
+      <c r="I90" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J90" t="s">
@@ -7235,7 +6976,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>138</v>
       </c>
@@ -7254,13 +6995,13 @@
       <c r="F91" s="1">
         <v>23.1794444444444</v>
       </c>
-      <c r="G91" s="2" t="s">
+      <c r="G91" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H91" s="1">
-        <v>113.3525</v>
-      </c>
-      <c r="I91" s="2" t="s">
+        <v>113.35250000000001</v>
+      </c>
+      <c r="I91" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J91" t="s">
@@ -7270,7 +7011,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>139</v>
       </c>
@@ -7289,13 +7030,13 @@
       <c r="F92" s="1">
         <v>31.69</v>
       </c>
-      <c r="G92" s="2" t="s">
+      <c r="G92" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H92" s="1">
         <v>103.899444444444</v>
       </c>
-      <c r="I92" s="2" t="s">
+      <c r="I92" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J92" t="s">
@@ -7305,7 +7046,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>140</v>
       </c>
@@ -7322,15 +7063,15 @@
         <v>120</v>
       </c>
       <c r="F93" s="1">
-        <v>33.05</v>
-      </c>
-      <c r="G93" s="2" t="s">
+        <v>33.049999999999997</v>
+      </c>
+      <c r="G93" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H93" s="1">
         <v>-112</v>
       </c>
-      <c r="I93" s="2" t="s">
+      <c r="I93" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J93" t="s">
@@ -7340,7 +7081,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>142</v>
       </c>
@@ -7359,13 +7100,13 @@
       <c r="F94" s="1">
         <v>42.2202705479</v>
       </c>
-      <c r="G94" s="2" t="s">
+      <c r="G94" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H94" s="1">
         <v>116.5062761307</v>
       </c>
-      <c r="I94" s="2" t="s">
+      <c r="I94" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J94" t="s">
@@ -7375,7 +7116,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>143</v>
       </c>
@@ -7392,15 +7133,15 @@
         <v>120</v>
       </c>
       <c r="F95" s="1">
-        <v>43.6333333333333</v>
-      </c>
-      <c r="G95" s="2" t="s">
+        <v>43.633333333333297</v>
+      </c>
+      <c r="G95" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H95" s="1">
         <v>116.7</v>
       </c>
-      <c r="I95" s="2" t="s">
+      <c r="I95" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J95" t="s">
@@ -7410,7 +7151,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>146</v>
       </c>
@@ -7427,15 +7168,15 @@
         <v>120</v>
       </c>
       <c r="F96" s="1">
-        <v>41.3872139</v>
-      </c>
-      <c r="G96" s="2" t="s">
+        <v>41.387213899999999</v>
+      </c>
+      <c r="G96" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H96" s="1">
-        <v>2.1619949</v>
-      </c>
-      <c r="I96" s="2" t="s">
+        <v>2.1619948999999998</v>
+      </c>
+      <c r="I96" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J96" t="s">
@@ -7445,7 +7186,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>152</v>
       </c>
@@ -7462,15 +7203,15 @@
         <v>124</v>
       </c>
       <c r="F97" s="1">
-        <v>45.9977237</v>
-      </c>
-      <c r="G97" s="2" t="s">
+        <v>45.997723700000002</v>
+      </c>
+      <c r="G97" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H97" s="1">
-        <v>-77.4277607</v>
-      </c>
-      <c r="I97" s="2" t="s">
+        <v>-77.427760699999993</v>
+      </c>
+      <c r="I97" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J97" t="s">
@@ -7480,7 +7221,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>154</v>
       </c>
@@ -7499,13 +7240,13 @@
       <c r="F98" s="1">
         <v>41.4860653</v>
       </c>
-      <c r="G98" s="2" t="s">
+      <c r="G98" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H98" s="1">
-        <v>-71.5308537</v>
-      </c>
-      <c r="I98" s="2" t="s">
+        <v>-71.530853699999994</v>
+      </c>
+      <c r="I98" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J98" t="s">
@@ -7515,7 +7256,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>157</v>
       </c>
@@ -7532,15 +7273,15 @@
         <v>124</v>
       </c>
       <c r="F99" s="1">
-        <v>42.9944987</v>
-      </c>
-      <c r="G99" s="2" t="s">
+        <v>42.994498700000001</v>
+      </c>
+      <c r="G99" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H99" s="1">
-        <v>141.3885523</v>
-      </c>
-      <c r="I99" s="2" t="s">
+        <v>141.38855229999999</v>
+      </c>
+      <c r="I99" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J99" t="s">
@@ -7550,7 +7291,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>159</v>
       </c>
@@ -7569,13 +7310,13 @@
       <c r="F100" s="1">
         <v>43</v>
       </c>
-      <c r="G100" s="2" t="s">
+      <c r="G100" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H100" s="1">
         <v>141</v>
       </c>
-      <c r="I100" s="2" t="s">
+      <c r="I100" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J100" t="s">
@@ -7585,7 +7326,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>162</v>
       </c>
@@ -7602,15 +7343,15 @@
         <v>124</v>
       </c>
       <c r="F101" s="1">
-        <v>36.8166666666667</v>
-      </c>
-      <c r="G101" s="2" t="s">
+        <v>36.816666666666698</v>
+      </c>
+      <c r="G101" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H101" s="1">
         <v>-115.916666666667</v>
       </c>
-      <c r="I101" s="2" t="s">
+      <c r="I101" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J101" t="s">
@@ -7620,7 +7361,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="102" spans="1:11">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>164</v>
       </c>
@@ -7637,15 +7378,15 @@
         <v>124</v>
       </c>
       <c r="F102" s="1">
-        <v>30.225029</v>
-      </c>
-      <c r="G102" s="2" t="s">
+        <v>30.225028999999999</v>
+      </c>
+      <c r="G102" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H102" s="1">
         <v>-92.1150454</v>
       </c>
-      <c r="I102" s="2" t="s">
+      <c r="I102" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J102" t="s">
@@ -7655,7 +7396,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>167</v>
       </c>
@@ -7674,13 +7415,13 @@
       <c r="F103" s="1">
         <v>50.57085</v>
       </c>
-      <c r="G103" s="2" t="s">
+      <c r="G103" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H103" s="1">
-        <v>8.6685597</v>
-      </c>
-      <c r="I103" s="2" t="s">
+        <v>8.6685596999999994</v>
+      </c>
+      <c r="I103" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J103" t="s">
@@ -7690,7 +7431,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="104" spans="1:11">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>168</v>
       </c>
@@ -7707,15 +7448,15 @@
         <v>120</v>
       </c>
       <c r="F104" s="1">
-        <v>33.4666666666667</v>
-      </c>
-      <c r="G104" s="2" t="s">
+        <v>33.466666666666697</v>
+      </c>
+      <c r="G104" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H104" s="1">
-        <v>88.7833333333333</v>
-      </c>
-      <c r="I104" s="2" t="s">
+        <v>88.783333333333303</v>
+      </c>
+      <c r="I104" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J104" t="s">
@@ -7725,7 +7466,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>169</v>
       </c>
@@ -7742,15 +7483,15 @@
         <v>120</v>
       </c>
       <c r="F105" s="1">
-        <v>51.9845558</v>
-      </c>
-      <c r="G105" s="2" t="s">
+        <v>51.984555800000003</v>
+      </c>
+      <c r="G105" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H105" s="1">
-        <v>5.6635809</v>
-      </c>
-      <c r="I105" s="2" t="s">
+        <v>5.6635809000000004</v>
+      </c>
+      <c r="I105" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J105" t="s">
@@ -7760,7 +7501,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>171</v>
       </c>
@@ -7777,15 +7518,15 @@
         <v>120</v>
       </c>
       <c r="F106" s="1">
-        <v>35.6972439</v>
-      </c>
-      <c r="G106" s="2" t="s">
+        <v>35.697243899999997</v>
+      </c>
+      <c r="G106" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H106" s="1">
         <v>139.7593459</v>
       </c>
-      <c r="I106" s="2" t="s">
+      <c r="I106" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J106" t="s">
@@ -7795,7 +7536,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>173</v>
       </c>
@@ -7812,15 +7553,15 @@
         <v>120</v>
       </c>
       <c r="F107" s="1">
-        <v>47.448734</v>
-      </c>
-      <c r="G107" s="2" t="s">
+        <v>47.448734000000002</v>
+      </c>
+      <c r="G107" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H107" s="1">
-        <v>8.678572</v>
-      </c>
-      <c r="I107" s="2" t="s">
+        <v>8.6785720000000008</v>
+      </c>
+      <c r="I107" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J107" t="s">
@@ -7830,7 +7571,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="108" spans="1:11">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>175</v>
       </c>
@@ -7847,15 +7588,15 @@
         <v>120</v>
       </c>
       <c r="F108" s="1">
-        <v>35.7846637</v>
-      </c>
-      <c r="G108" s="2" t="s">
+        <v>35.784663700000003</v>
+      </c>
+      <c r="G108" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H108" s="1">
-        <v>-78.6820946</v>
-      </c>
-      <c r="I108" s="2" t="s">
+        <v>-78.682094599999999</v>
+      </c>
+      <c r="I108" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J108" t="s">
@@ -7865,7 +7606,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>176</v>
       </c>
@@ -7882,15 +7623,15 @@
         <v>120</v>
       </c>
       <c r="F109" s="1">
-        <v>60.8166666666667</v>
-      </c>
-      <c r="G109" s="2" t="s">
+        <v>60.816666666666698</v>
+      </c>
+      <c r="G109" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H109" s="1">
         <v>23.5</v>
       </c>
-      <c r="I109" s="2" t="s">
+      <c r="I109" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J109" t="s">
@@ -7900,7 +7641,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>177</v>
       </c>
@@ -7917,15 +7658,15 @@
         <v>120</v>
       </c>
       <c r="F110" s="1">
-        <v>51.8777259</v>
-      </c>
-      <c r="G110" s="2" t="s">
+        <v>51.877725900000002</v>
+      </c>
+      <c r="G110" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H110" s="1">
-        <v>0.9472071</v>
-      </c>
-      <c r="I110" s="2" t="s">
+        <v>0.94720709999999997</v>
+      </c>
+      <c r="I110" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J110" t="s">
@@ -7935,7 +7676,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>178</v>
       </c>
@@ -7952,15 +7693,15 @@
         <v>124</v>
       </c>
       <c r="F111" s="1">
-        <v>47.3605578</v>
-      </c>
-      <c r="G111" s="2" t="s">
+        <v>47.360557800000002</v>
+      </c>
+      <c r="G111" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H111" s="1">
         <v>8.4524241</v>
       </c>
-      <c r="I111" s="2" t="s">
+      <c r="I111" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J111" t="s">
@@ -7970,7 +7711,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>179</v>
       </c>
@@ -7987,15 +7728,15 @@
         <v>120</v>
       </c>
       <c r="F112" s="1">
-        <v>60.1726353</v>
-      </c>
-      <c r="G112" s="2" t="s">
+        <v>60.172635300000003</v>
+      </c>
+      <c r="G112" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H112" s="1">
         <v>24.9510419</v>
       </c>
-      <c r="I112" s="2" t="s">
+      <c r="I112" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J112" t="s">
@@ -8006,25 +7747,24 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>